--- a/Horário.xlsx
+++ b/Horário.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t xml:space="preserve">Hor</t>
   </si>
@@ -43,21 +43,21 @@
     <t xml:space="preserve">Matemática</t>
   </si>
   <si>
+    <t xml:space="preserve">Língua Portuguesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educação Física</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Língua Inglesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geografia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ciências</t>
   </si>
   <si>
-    <t xml:space="preserve">Educação Física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Língua Inglesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geografia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Língua Portuguesa</t>
-  </si>
-  <si>
     <t xml:space="preserve">´</t>
   </si>
   <si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">História</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geografa</t>
   </si>
   <si>
     <t xml:space="preserve">Língua Espanhola</t>
@@ -273,11 +270,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="17.36"/>
   </cols>
@@ -319,7 +316,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,7 +336,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
@@ -350,13 +347,13 @@
         <v>0.611111111111111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -373,16 +370,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,13 +390,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>9</v>
@@ -413,16 +410,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Horário.xlsx
+++ b/Horário.xlsx
@@ -40,31 +40,31 @@
     <t xml:space="preserve">Sex</t>
   </si>
   <si>
+    <t xml:space="preserve">Língua Portuguesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Língua Inglesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educação Física</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matemática</t>
   </si>
   <si>
-    <t xml:space="preserve">Língua Portuguesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Educação Física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Língua Inglesa</t>
+    <t xml:space="preserve">História</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciências</t>
+  </si>
+  <si>
+    <t xml:space="preserve">´</t>
   </si>
   <si>
     <t xml:space="preserve">Geografia</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciências</t>
-  </si>
-  <si>
-    <t xml:space="preserve">´</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">História</t>
   </si>
   <si>
     <t xml:space="preserve">Língua Espanhola</t>
@@ -270,11 +270,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="17.36"/>
   </cols>
@@ -313,10 +313,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,7 +324,7 @@
         <v>0.576388888888889</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -336,7 +336,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
@@ -347,19 +347,19 @@
         <v>0.611111111111111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,16 +370,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,19 +387,19 @@
         <v>0.694444444444444</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,19 +407,19 @@
         <v>0.729166666666667</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
